--- a/List of MegaMod and Firmware.xlsx
+++ b/List of MegaMod and Firmware.xlsx
@@ -609,7 +609,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>56</v>
@@ -687,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>

--- a/List of MegaMod and Firmware.xlsx
+++ b/List of MegaMod and Firmware.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t>Bit</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>invert2.mgu</t>
+  </si>
+  <si>
+    <t>Note that v0.99.1dev has poor support for high-rate PSG music (Atart ST SNDH VGM dumps).</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -664,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>56</v>
@@ -687,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -955,6 +958,11 @@
         <v>43</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G16" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>44</v>

--- a/List of MegaMod and Firmware.xlsx
+++ b/List of MegaMod and Firmware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t>Bit</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Compatible with some arcade games, such as Mad Gear.ZX-Spectrum(TurboSound FM)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -130,10 +126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Compatible with MSX-Music,ZX-Spectrum(AY)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>D6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -216,9 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NewDriver5 2023.12.1.mgu</t>
-  </si>
-  <si>
     <t>saa1099test 2024.2.17.mgu</t>
   </si>
   <si>
@@ -228,24 +217,86 @@
     <t>nes4.mgu</t>
   </si>
   <si>
-    <t>v0.99.1dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full support for playing VGM using dual PSG (that is, ZX Spectrum TurboSound).</t>
-  </si>
-  <si>
     <t>invert2.mgu</t>
   </si>
   <si>
     <t>Note that v0.99.1dev has poor support for high-rate PSG music (Atart ST SNDH VGM dumps).</t>
+  </si>
+  <si>
+    <t>OPNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bugs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.99.2dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sometimes the sound would not stop when switching tracks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compatible with MSX-Music,ZX-Spectrum(AY),Atari ST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compatible with some arcade games, such as Mad Gear.ZX-Spectrum(TurboSound FM),Atari ST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full support for playing VGM using dual PSG (that is, ZX Spectrum TurboSound),Atari ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.99.2dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.99.2 : plays Rusty SSG-PCM without sound.The same is true for other versions of firmware.
+The efficiency is not high enough when playing SNDH VGM, and the playback speed will be slow when the amount of PSG-PCM data is large.
+click_2023.11.4 : The efficiency is very low and the sound quality is poor when playing SNDH VGM.
+All version : there is a clicking sound when switching OPLL tracks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">click_2023.11.4.mgu
+Rusty SSG-PCM ok.
+v0.99.2dev
+Some SNDH ok
+NewDriver5 2023.12.1.mgu
+Most SNDH ok, Contains a large collection of SNDH digital drum sounds.
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewDriver5 2023.12.1.mgu
+Most SNDH ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2xPSG 2023.11.26.mgu
+Most SNDH ok
+NewDriver5 2023.12.1.mgu
+Most SNDH ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +315,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -315,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -327,6 +387,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,30 +681,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F5:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.5" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="3.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -643,14 +716,17 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -666,14 +742,15 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
+      <c r="F2" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -689,19 +766,20 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
+      <c r="F3" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -712,19 +790,22 @@
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
+      <c r="F4" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -735,42 +816,48 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
+      <c r="F5" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -781,19 +868,22 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>55</v>
+      <c r="F7" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -802,21 +892,24 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -827,19 +920,22 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>51</v>
+      <c r="F9" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -850,19 +946,22 @@
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>52</v>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -873,31 +972,35 @@
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
+      <c r="F11" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -905,42 +1008,44 @@
       <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>55</v>
+      <c r="F13" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -951,24 +1056,42 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
+      <c r="F15" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="G16" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -979,19 +1102,20 @@
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>54</v>
+      <c r="F18" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -1002,12 +1126,25 @@
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>53</v>
+      <c r="F19" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
